--- a/data/County Housing Units.xlsx
+++ b/data/County Housing Units.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Community Profiles\Shiny Demos\Housing Internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Community Profiles\Shiny Demos\Housing Internal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="1990_2000" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,10 +982,10 @@
         <v>1780966</v>
       </c>
       <c r="O3">
-        <v>1820938</v>
+        <v>1835015</v>
       </c>
       <c r="P3">
-        <f>ROUND(FORECAST(P$2,D3:M3,D$2:M$2),0)</f>
+        <f>ROUND(_xlfn.FORECAST.LINEAR(P$2,D3:M3,D$2:M$2),0)</f>
         <v>1780966</v>
       </c>
     </row>
@@ -1033,10 +1033,10 @@
         <v>128977</v>
       </c>
       <c r="O4">
-        <v>127299</v>
+        <v>134497</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P66" si="0">ROUND(FORECAST(P$2,D4:M4,D$2:M$2),0)</f>
+        <f t="shared" ref="P4:P66" si="0">ROUND(_xlfn.FORECAST.LINEAR(P$2,D4:M4,D$2:M$2),0)</f>
         <v>128977</v>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
         <v>5982</v>
       </c>
       <c r="O5">
-        <v>6134</v>
+        <v>6146</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1135,7 +1135,7 @@
         <v>196397</v>
       </c>
       <c r="O6">
-        <v>196835</v>
+        <v>198605</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -1186,7 +1186,7 @@
         <v>5515</v>
       </c>
       <c r="O7">
-        <v>6211</v>
+        <v>6302</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1237,7 +1237,7 @@
         <v>2483</v>
       </c>
       <c r="O8">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1288,7 +1288,7 @@
         <v>2457</v>
       </c>
       <c r="O9">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -1339,7 +1339,7 @@
         <v>118569</v>
       </c>
       <c r="O10">
-        <v>113524</v>
+        <v>122791</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -1390,7 +1390,7 @@
         <v>7966</v>
       </c>
       <c r="O11">
-        <v>8392</v>
+        <v>8449</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -1441,7 +1441,7 @@
         <v>1117</v>
       </c>
       <c r="O12">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -1492,7 +1492,7 @@
         <v>5458</v>
       </c>
       <c r="O13">
-        <v>5156</v>
+        <v>5175</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -1543,7 +1543,7 @@
         <v>3867</v>
       </c>
       <c r="O14">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,7 @@
         <v>2289</v>
       </c>
       <c r="O15">
-        <v>2202</v>
+        <v>2211</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -1645,7 +1645,7 @@
         <v>1482</v>
       </c>
       <c r="O16">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -1696,7 +1696,7 @@
         <v>2941</v>
       </c>
       <c r="O17">
-        <v>2989</v>
+        <v>3029</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -1747,7 +1747,7 @@
         <v>10850</v>
       </c>
       <c r="O18">
-        <v>12374</v>
+        <v>12410</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -1798,7 +1798,7 @@
         <v>249851</v>
       </c>
       <c r="O19">
-        <v>251435</v>
+        <v>252392</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
         <v>1010</v>
       </c>
       <c r="O20">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
@@ -1900,7 +1900,7 @@
         <v>59087</v>
       </c>
       <c r="O21">
-        <v>63333</v>
+        <v>65623</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -1951,7 +1951,7 @@
         <v>24072</v>
       </c>
       <c r="O22">
-        <v>24959</v>
+        <v>25145</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
@@ -2002,7 +2002,7 @@
         <v>7177</v>
       </c>
       <c r="O23">
-        <v>7113</v>
+        <v>7186</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -2053,7 +2053,7 @@
         <v>199237</v>
       </c>
       <c r="O24">
-        <v>202574</v>
+        <v>204091</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
@@ -2104,7 +2104,7 @@
         <v>15986</v>
       </c>
       <c r="O25">
-        <v>17145</v>
+        <v>17230</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
@@ -2155,7 +2155,7 @@
         <v>16332</v>
       </c>
       <c r="O26">
-        <v>17336</v>
+        <v>17521</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -2206,7 +2206,7 @@
         <v>3077</v>
       </c>
       <c r="O27">
-        <v>2929</v>
+        <v>2950</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
         <v>11914</v>
       </c>
       <c r="O28">
-        <v>12071</v>
+        <v>12198</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -2308,7 +2308,7 @@
         <v>9825</v>
       </c>
       <c r="O29">
-        <v>9135</v>
+        <v>9222</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
@@ -2359,7 +2359,7 @@
         <v>1434</v>
       </c>
       <c r="O30">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -2410,7 +2410,7 @@
         <v>4403</v>
       </c>
       <c r="O31">
-        <v>4599</v>
+        <v>4620</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
@@ -2461,7 +2461,7 @@
         <v>1434</v>
       </c>
       <c r="O32">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -2512,7 +2512,7 @@
         <v>210930</v>
       </c>
       <c r="O33">
-        <v>211978</v>
+        <v>212761</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -2563,7 +2563,7 @@
         <v>890</v>
       </c>
       <c r="O34">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
@@ -2614,7 +2614,7 @@
         <v>3331</v>
       </c>
       <c r="O35">
-        <v>3430</v>
+        <v>3437</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
         <v>3996</v>
       </c>
       <c r="O36">
-        <v>3963</v>
+        <v>3974</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
@@ -2716,7 +2716,7 @@
         <v>21442</v>
       </c>
       <c r="O37">
-        <v>21036</v>
+        <v>21117</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
@@ -2767,7 +2767,7 @@
         <v>102168</v>
       </c>
       <c r="O38">
-        <v>105391</v>
+        <v>106267</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
@@ -2818,7 +2818,7 @@
         <v>7593</v>
       </c>
       <c r="O39">
-        <v>7629</v>
+        <v>7647</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
@@ -2869,7 +2869,7 @@
         <v>2361</v>
       </c>
       <c r="O40">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
@@ -2920,7 +2920,7 @@
         <v>8245</v>
       </c>
       <c r="O41">
-        <v>8454</v>
+        <v>8473</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
@@ -2929,1280 +2929,1283 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D42">
-        <v>1201</v>
+        <v>39208</v>
       </c>
       <c r="E42">
-        <v>1211</v>
+        <v>39475</v>
       </c>
       <c r="F42">
-        <v>1222</v>
+        <v>39817</v>
       </c>
       <c r="G42">
-        <v>1237</v>
+        <v>40382</v>
       </c>
       <c r="H42">
-        <v>1253</v>
+        <v>41172</v>
       </c>
       <c r="I42">
-        <v>1269</v>
+        <v>42096</v>
       </c>
       <c r="J42">
-        <v>1294</v>
+        <v>43038</v>
       </c>
       <c r="K42">
-        <v>1325</v>
+        <v>44081</v>
       </c>
       <c r="L42">
-        <v>1337</v>
+        <v>45196</v>
       </c>
       <c r="M42">
-        <v>1351</v>
+        <v>50976</v>
       </c>
       <c r="N42">
-        <v>1368</v>
+        <v>48416</v>
       </c>
       <c r="O42">
-        <v>1119</v>
+        <v>49075</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>1368</v>
+        <v>48416</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43">
-        <v>5235</v>
+        <v>1201</v>
       </c>
       <c r="E43">
-        <v>5237</v>
+        <v>1211</v>
       </c>
       <c r="F43">
-        <v>5239</v>
+        <v>1222</v>
       </c>
       <c r="G43">
-        <v>5246</v>
+        <v>1237</v>
       </c>
       <c r="H43">
-        <v>5261</v>
+        <v>1253</v>
       </c>
       <c r="I43">
-        <v>5278</v>
+        <v>1269</v>
       </c>
       <c r="J43">
-        <v>5371</v>
+        <v>1294</v>
       </c>
       <c r="K43">
-        <v>5413</v>
+        <v>1325</v>
       </c>
       <c r="L43">
-        <v>5473</v>
+        <v>1337</v>
       </c>
       <c r="M43">
-        <v>5507</v>
+        <v>1351</v>
       </c>
       <c r="N43">
-        <v>5505</v>
+        <v>1368</v>
       </c>
       <c r="O43">
-        <v>5635</v>
+        <v>1120</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>5505</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44">
-        <v>8050</v>
+        <v>5235</v>
       </c>
       <c r="E44">
-        <v>8059</v>
+        <v>5237</v>
       </c>
       <c r="F44">
-        <v>8077</v>
+        <v>5239</v>
       </c>
       <c r="G44">
-        <v>8482</v>
+        <v>5246</v>
       </c>
       <c r="H44">
-        <v>8767</v>
+        <v>5261</v>
       </c>
       <c r="I44">
-        <v>8856</v>
+        <v>5278</v>
       </c>
       <c r="J44">
-        <v>9125</v>
+        <v>5371</v>
       </c>
       <c r="K44">
-        <v>9339</v>
+        <v>5413</v>
       </c>
       <c r="L44">
-        <v>9366</v>
+        <v>5473</v>
       </c>
       <c r="M44">
-        <v>9427</v>
+        <v>5507</v>
       </c>
       <c r="N44">
-        <v>9750</v>
+        <v>5505</v>
       </c>
       <c r="O44">
-        <v>10497</v>
+        <v>5645</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>9750</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45">
-        <v>10353</v>
+        <v>8050</v>
       </c>
       <c r="E45">
-        <v>10457</v>
+        <v>8059</v>
       </c>
       <c r="F45">
-        <v>10584</v>
+        <v>8077</v>
       </c>
       <c r="G45">
-        <v>10766</v>
+        <v>8482</v>
       </c>
       <c r="H45">
-        <v>11023</v>
+        <v>8767</v>
       </c>
       <c r="I45">
-        <v>11387</v>
+        <v>8856</v>
       </c>
       <c r="J45">
-        <v>11645</v>
+        <v>9125</v>
       </c>
       <c r="K45">
-        <v>11869</v>
+        <v>9339</v>
       </c>
       <c r="L45">
-        <v>12082</v>
+        <v>9366</v>
       </c>
       <c r="M45">
-        <v>12392</v>
+        <v>9427</v>
       </c>
       <c r="N45">
-        <v>12561</v>
+        <v>9750</v>
       </c>
       <c r="O45">
-        <v>14202</v>
+        <v>10535</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>12561</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46">
-        <v>9230</v>
+        <v>10353</v>
       </c>
       <c r="E46">
-        <v>9239</v>
+        <v>10457</v>
       </c>
       <c r="F46">
-        <v>9267</v>
+        <v>10584</v>
       </c>
       <c r="G46">
-        <v>9322</v>
+        <v>10766</v>
       </c>
       <c r="H46">
-        <v>9373</v>
+        <v>11023</v>
       </c>
       <c r="I46">
-        <v>9564</v>
+        <v>11387</v>
       </c>
       <c r="J46">
-        <v>9690</v>
+        <v>11645</v>
       </c>
       <c r="K46">
-        <v>9805</v>
+        <v>11869</v>
       </c>
       <c r="L46">
-        <v>9932</v>
+        <v>12082</v>
       </c>
       <c r="M46">
-        <v>10118</v>
+        <v>12392</v>
       </c>
       <c r="N46">
-        <v>10115</v>
+        <v>12561</v>
       </c>
       <c r="O46">
-        <v>10410</v>
+        <v>14292</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>10115</v>
+        <v>12561</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47">
-        <v>8739</v>
+        <v>9230</v>
       </c>
       <c r="E47">
-        <v>8741</v>
+        <v>9239</v>
       </c>
       <c r="F47">
-        <v>8750</v>
+        <v>9267</v>
       </c>
       <c r="G47">
-        <v>8768</v>
+        <v>9322</v>
       </c>
       <c r="H47">
-        <v>8771</v>
+        <v>9373</v>
       </c>
       <c r="I47">
-        <v>8775</v>
+        <v>9564</v>
       </c>
       <c r="J47">
-        <v>8826</v>
+        <v>9690</v>
       </c>
       <c r="K47">
-        <v>8855</v>
+        <v>9805</v>
       </c>
       <c r="L47">
-        <v>8895</v>
+        <v>9932</v>
       </c>
       <c r="M47">
-        <v>8927</v>
+        <v>10118</v>
       </c>
       <c r="N47">
-        <v>8920</v>
+        <v>10115</v>
       </c>
       <c r="O47">
-        <v>8813</v>
+        <v>10440</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>8920</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48">
-        <v>1507</v>
+        <v>8739</v>
       </c>
       <c r="E48">
-        <v>1539</v>
+        <v>8741</v>
       </c>
       <c r="F48">
-        <v>1576</v>
+        <v>8750</v>
       </c>
       <c r="G48">
-        <v>1642</v>
+        <v>8768</v>
       </c>
       <c r="H48">
-        <v>1712</v>
+        <v>8771</v>
       </c>
       <c r="I48">
-        <v>1802</v>
+        <v>8775</v>
       </c>
       <c r="J48">
-        <v>1898</v>
+        <v>8826</v>
       </c>
       <c r="K48">
-        <v>2006</v>
+        <v>8855</v>
       </c>
       <c r="L48">
-        <v>2064</v>
+        <v>8895</v>
       </c>
       <c r="M48">
-        <v>2131</v>
+        <v>8927</v>
       </c>
       <c r="N48">
-        <v>2198</v>
+        <v>8920</v>
       </c>
       <c r="O48">
-        <v>2146</v>
+        <v>8821</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>2198</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49">
-        <v>7247</v>
+        <v>1507</v>
       </c>
       <c r="E49">
-        <v>7371</v>
+        <v>1539</v>
       </c>
       <c r="F49">
-        <v>7468</v>
+        <v>1576</v>
       </c>
       <c r="G49">
-        <v>7650</v>
+        <v>1642</v>
       </c>
       <c r="H49">
-        <v>7948</v>
+        <v>1712</v>
       </c>
       <c r="I49">
-        <v>8374</v>
+        <v>1802</v>
       </c>
       <c r="J49">
-        <v>8826</v>
+        <v>1898</v>
       </c>
       <c r="K49">
-        <v>9294</v>
+        <v>2006</v>
       </c>
       <c r="L49">
-        <v>9740</v>
+        <v>2064</v>
       </c>
       <c r="M49">
-        <v>10085</v>
+        <v>2131</v>
       </c>
       <c r="N49">
-        <v>10241</v>
+        <v>2198</v>
       </c>
       <c r="O49">
-        <v>10696</v>
+        <v>2162</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>10241</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50">
-        <v>1960</v>
+        <v>7247</v>
       </c>
       <c r="E50">
-        <v>1966</v>
+        <v>7371</v>
       </c>
       <c r="F50">
-        <v>1968</v>
+        <v>7468</v>
       </c>
       <c r="G50">
-        <v>1975</v>
+        <v>7650</v>
       </c>
       <c r="H50">
-        <v>1982</v>
+        <v>7948</v>
       </c>
       <c r="I50">
-        <v>1988</v>
+        <v>8374</v>
       </c>
       <c r="J50">
-        <v>1996</v>
+        <v>8826</v>
       </c>
       <c r="K50">
-        <v>2011</v>
+        <v>9294</v>
       </c>
       <c r="L50">
-        <v>2030</v>
+        <v>9740</v>
       </c>
       <c r="M50">
-        <v>2044</v>
+        <v>10085</v>
       </c>
       <c r="N50">
-        <v>2042</v>
+        <v>10241</v>
       </c>
       <c r="O50">
-        <v>2014</v>
+        <v>10810</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>2042</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>9837</v>
+        <v>1960</v>
       </c>
       <c r="E51">
-        <v>9990</v>
+        <v>1966</v>
       </c>
       <c r="F51">
-        <v>10076</v>
+        <v>1968</v>
       </c>
       <c r="G51">
-        <v>10183</v>
+        <v>1975</v>
       </c>
       <c r="H51">
-        <v>10321</v>
+        <v>1982</v>
       </c>
       <c r="I51">
-        <v>10513</v>
+        <v>1988</v>
       </c>
       <c r="J51">
-        <v>10605</v>
+        <v>1996</v>
       </c>
       <c r="K51">
-        <v>10785</v>
+        <v>2011</v>
       </c>
       <c r="L51">
-        <v>11165</v>
+        <v>2030</v>
       </c>
       <c r="M51">
-        <v>11339</v>
+        <v>2044</v>
       </c>
       <c r="N51">
-        <v>11373</v>
+        <v>2042</v>
       </c>
       <c r="O51">
-        <v>11847</v>
+        <v>2016</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>11373</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52">
-        <v>5855</v>
+        <v>9837</v>
       </c>
       <c r="E52">
-        <v>5854</v>
+        <v>9990</v>
       </c>
       <c r="F52">
-        <v>5852</v>
+        <v>10076</v>
       </c>
       <c r="G52">
-        <v>5848</v>
+        <v>10183</v>
       </c>
       <c r="H52">
-        <v>5848</v>
+        <v>10321</v>
       </c>
       <c r="I52">
-        <v>5855</v>
+        <v>10513</v>
       </c>
       <c r="J52">
-        <v>5866</v>
+        <v>10605</v>
       </c>
       <c r="K52">
-        <v>5947</v>
+        <v>10785</v>
       </c>
       <c r="L52">
-        <v>6005</v>
+        <v>11165</v>
       </c>
       <c r="M52">
-        <v>6059</v>
+        <v>11339</v>
       </c>
       <c r="N52">
-        <v>6013</v>
+        <v>11373</v>
       </c>
       <c r="O52">
-        <v>5978</v>
+        <v>11901</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>6013</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53">
-        <v>50872</v>
+        <v>5855</v>
       </c>
       <c r="E53">
-        <v>51039</v>
+        <v>5854</v>
       </c>
       <c r="F53">
-        <v>51199</v>
+        <v>5852</v>
       </c>
       <c r="G53">
-        <v>51544</v>
+        <v>5848</v>
       </c>
       <c r="H53">
-        <v>51949</v>
+        <v>5848</v>
       </c>
       <c r="I53">
-        <v>52292</v>
+        <v>5855</v>
       </c>
       <c r="J53">
-        <v>53330</v>
+        <v>5866</v>
       </c>
       <c r="K53">
-        <v>54717</v>
+        <v>5947</v>
       </c>
       <c r="L53">
-        <v>56103</v>
+        <v>6005</v>
       </c>
       <c r="M53">
-        <v>57454</v>
+        <v>6059</v>
       </c>
       <c r="N53">
-        <v>56982</v>
+        <v>6013</v>
       </c>
       <c r="O53">
-        <v>58927</v>
+        <v>5980</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>56982</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54">
-        <v>2803</v>
+        <v>50872</v>
       </c>
       <c r="E54">
-        <v>2811</v>
+        <v>51039</v>
       </c>
       <c r="F54">
-        <v>2809</v>
+        <v>51199</v>
       </c>
       <c r="G54">
-        <v>2830</v>
+        <v>51544</v>
       </c>
       <c r="H54">
-        <v>2852</v>
+        <v>51949</v>
       </c>
       <c r="I54">
-        <v>2867</v>
+        <v>52292</v>
       </c>
       <c r="J54">
-        <v>2884</v>
+        <v>53330</v>
       </c>
       <c r="K54">
-        <v>2898</v>
+        <v>54717</v>
       </c>
       <c r="L54">
-        <v>2914</v>
+        <v>56103</v>
       </c>
       <c r="M54">
-        <v>2929</v>
+        <v>57454</v>
       </c>
       <c r="N54">
-        <v>2942</v>
+        <v>56982</v>
       </c>
       <c r="O54">
-        <v>2855</v>
+        <v>59196</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>2942</v>
+        <v>56982</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55">
-        <v>5277</v>
+        <v>2803</v>
       </c>
       <c r="E55">
-        <v>5275</v>
+        <v>2811</v>
       </c>
       <c r="F55">
-        <v>5303</v>
+        <v>2809</v>
       </c>
       <c r="G55">
-        <v>5321</v>
+        <v>2830</v>
       </c>
       <c r="H55">
-        <v>5351</v>
+        <v>2852</v>
       </c>
       <c r="I55">
-        <v>5357</v>
+        <v>2867</v>
       </c>
       <c r="J55">
-        <v>5470</v>
+        <v>2884</v>
       </c>
       <c r="K55">
-        <v>5602</v>
+        <v>2898</v>
       </c>
       <c r="L55">
-        <v>5718</v>
+        <v>2914</v>
       </c>
       <c r="M55">
-        <v>5815</v>
+        <v>2929</v>
       </c>
       <c r="N55">
-        <v>5779</v>
+        <v>2942</v>
       </c>
       <c r="O55">
-        <v>6003</v>
+        <v>2859</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>5779</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56">
-        <v>9252</v>
+        <v>5277</v>
       </c>
       <c r="E56">
-        <v>9439</v>
+        <v>5275</v>
       </c>
       <c r="F56">
-        <v>9569</v>
+        <v>5303</v>
       </c>
       <c r="G56">
-        <v>9792</v>
+        <v>5321</v>
       </c>
       <c r="H56">
-        <v>10079</v>
+        <v>5351</v>
       </c>
       <c r="I56">
-        <v>10527</v>
+        <v>5357</v>
       </c>
       <c r="J56">
-        <v>10970</v>
+        <v>5470</v>
       </c>
       <c r="K56">
-        <v>11316</v>
+        <v>5602</v>
       </c>
       <c r="L56">
-        <v>11617</v>
+        <v>5718</v>
       </c>
       <c r="M56">
-        <v>12130</v>
+        <v>5815</v>
       </c>
       <c r="N56">
-        <v>12265</v>
+        <v>5779</v>
       </c>
       <c r="O56">
-        <v>11932</v>
+        <v>6026</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>12265</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>2306</v>
+        <v>9252</v>
       </c>
       <c r="E57">
-        <v>2306</v>
+        <v>9439</v>
       </c>
       <c r="F57">
-        <v>2306</v>
+        <v>9569</v>
       </c>
       <c r="G57">
-        <v>2326</v>
+        <v>9792</v>
       </c>
       <c r="H57">
-        <v>2327</v>
+        <v>10079</v>
       </c>
       <c r="I57">
-        <v>2396</v>
+        <v>10527</v>
       </c>
       <c r="J57">
-        <v>2444</v>
+        <v>10970</v>
       </c>
       <c r="K57">
-        <v>2511</v>
+        <v>11316</v>
       </c>
       <c r="L57">
-        <v>2647</v>
+        <v>11617</v>
       </c>
       <c r="M57">
-        <v>2752</v>
+        <v>12130</v>
       </c>
       <c r="N57">
-        <v>2694</v>
+        <v>12265</v>
       </c>
       <c r="O57">
-        <v>3087</v>
+        <v>12063</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>2694</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58">
-        <v>481</v>
+        <v>2306</v>
       </c>
       <c r="E58">
-        <v>483</v>
+        <v>2306</v>
       </c>
       <c r="F58">
-        <v>484</v>
+        <v>2306</v>
       </c>
       <c r="G58">
-        <v>488</v>
+        <v>2326</v>
       </c>
       <c r="H58">
-        <v>495</v>
+        <v>2327</v>
       </c>
       <c r="I58">
-        <v>497</v>
+        <v>2396</v>
       </c>
       <c r="J58">
-        <v>503</v>
+        <v>2444</v>
       </c>
       <c r="K58">
-        <v>509</v>
+        <v>2511</v>
       </c>
       <c r="L58">
-        <v>519</v>
+        <v>2647</v>
       </c>
       <c r="M58">
-        <v>606</v>
+        <v>2752</v>
       </c>
       <c r="N58">
-        <v>558</v>
+        <v>2694</v>
       </c>
       <c r="O58">
-        <v>632</v>
+        <v>3118</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>558</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59">
-        <v>2635</v>
+        <v>481</v>
       </c>
       <c r="E59">
-        <v>2771</v>
+        <v>483</v>
       </c>
       <c r="F59">
-        <v>2949</v>
+        <v>484</v>
       </c>
       <c r="G59">
-        <v>3123</v>
+        <v>488</v>
       </c>
       <c r="H59">
-        <v>3343</v>
+        <v>495</v>
       </c>
       <c r="I59">
-        <v>3696</v>
+        <v>497</v>
       </c>
       <c r="J59">
-        <v>3809</v>
+        <v>503</v>
       </c>
       <c r="K59">
-        <v>3961</v>
+        <v>509</v>
       </c>
       <c r="L59">
-        <v>4075</v>
+        <v>519</v>
       </c>
       <c r="M59">
-        <v>4530</v>
+        <v>606</v>
       </c>
       <c r="N59">
-        <v>4611</v>
+        <v>558</v>
       </c>
       <c r="O59">
-        <v>5197</v>
+        <v>633</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>4611</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60">
-        <v>1414</v>
+        <v>2635</v>
       </c>
       <c r="E60">
-        <v>1416</v>
+        <v>2771</v>
       </c>
       <c r="F60">
-        <v>1418</v>
+        <v>2949</v>
       </c>
       <c r="G60">
-        <v>1419</v>
+        <v>3123</v>
       </c>
       <c r="H60">
-        <v>1421</v>
+        <v>3343</v>
       </c>
       <c r="I60">
-        <v>1422</v>
+        <v>3696</v>
       </c>
       <c r="J60">
-        <v>1422</v>
+        <v>3809</v>
       </c>
       <c r="K60">
-        <v>1424</v>
+        <v>3961</v>
       </c>
       <c r="L60">
-        <v>1445</v>
+        <v>4075</v>
       </c>
       <c r="M60">
-        <v>1454</v>
+        <v>4530</v>
       </c>
       <c r="N60">
-        <v>1446</v>
+        <v>4611</v>
       </c>
       <c r="O60">
-        <v>1387</v>
+        <v>5231</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>1446</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61">
-        <v>17091</v>
+        <v>1414</v>
       </c>
       <c r="E61">
-        <v>17335</v>
+        <v>1416</v>
       </c>
       <c r="F61">
-        <v>17533</v>
+        <v>1418</v>
       </c>
       <c r="G61">
-        <v>17831</v>
+        <v>1419</v>
       </c>
       <c r="H61">
-        <v>18275</v>
+        <v>1421</v>
       </c>
       <c r="I61">
-        <v>19500</v>
+        <v>1422</v>
       </c>
       <c r="J61">
-        <v>20447</v>
+        <v>1422</v>
       </c>
       <c r="K61">
-        <v>21224</v>
+        <v>1424</v>
       </c>
       <c r="L61">
-        <v>22211</v>
+        <v>1445</v>
       </c>
       <c r="M61">
-        <v>23807</v>
+        <v>1454</v>
       </c>
       <c r="N61">
-        <v>23596</v>
+        <v>1446</v>
       </c>
       <c r="O61">
-        <v>27328</v>
+        <v>1389</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>23596</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D62">
-        <v>7565</v>
+        <v>17091</v>
       </c>
       <c r="E62">
-        <v>7633</v>
+        <v>17335</v>
       </c>
       <c r="F62">
-        <v>7707</v>
+        <v>17533</v>
       </c>
       <c r="G62">
-        <v>7896</v>
+        <v>17831</v>
       </c>
       <c r="H62">
-        <v>8094</v>
+        <v>18275</v>
       </c>
       <c r="I62">
-        <v>8343</v>
+        <v>19500</v>
       </c>
       <c r="J62">
-        <v>8607</v>
+        <v>20447</v>
       </c>
       <c r="K62">
-        <v>9189</v>
+        <v>21224</v>
       </c>
       <c r="L62">
-        <v>9557</v>
+        <v>22211</v>
       </c>
       <c r="M62">
-        <v>9858</v>
+        <v>23807</v>
       </c>
       <c r="N62">
-        <v>9908</v>
+        <v>23596</v>
       </c>
       <c r="O62">
-        <v>10573</v>
+        <v>27457</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>9908</v>
+        <v>23596</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D63">
-        <v>2307</v>
+        <v>7565</v>
       </c>
       <c r="E63">
-        <v>2310</v>
+        <v>7633</v>
       </c>
       <c r="F63">
-        <v>2314</v>
+        <v>7707</v>
       </c>
       <c r="G63">
-        <v>2316</v>
+        <v>7896</v>
       </c>
       <c r="H63">
-        <v>2319</v>
+        <v>8094</v>
       </c>
       <c r="I63">
-        <v>2320</v>
+        <v>8343</v>
       </c>
       <c r="J63">
-        <v>2332</v>
+        <v>8607</v>
       </c>
       <c r="K63">
-        <v>2341</v>
+        <v>9189</v>
       </c>
       <c r="L63">
-        <v>2352</v>
+        <v>9557</v>
       </c>
       <c r="M63">
-        <v>2369</v>
+        <v>9858</v>
       </c>
       <c r="N63">
-        <v>2363</v>
+        <v>9908</v>
       </c>
       <c r="O63">
-        <v>2307</v>
+        <v>10660</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>2363</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D64">
-        <v>51138</v>
+        <v>2307</v>
       </c>
       <c r="E64">
-        <v>51400</v>
+        <v>2310</v>
       </c>
       <c r="F64">
-        <v>51756</v>
+        <v>2314</v>
       </c>
       <c r="G64">
-        <v>52262</v>
+        <v>2316</v>
       </c>
       <c r="H64">
-        <v>53274</v>
+        <v>2319</v>
       </c>
       <c r="I64">
-        <v>54436</v>
+        <v>2320</v>
       </c>
       <c r="J64">
-        <v>55929</v>
+        <v>2332</v>
       </c>
       <c r="K64">
-        <v>57764</v>
+        <v>2341</v>
       </c>
       <c r="L64">
-        <v>59947</v>
+        <v>2352</v>
       </c>
       <c r="M64">
-        <v>65318</v>
+        <v>2369</v>
       </c>
       <c r="N64">
-        <v>62977</v>
+        <v>2363</v>
       </c>
       <c r="O64">
-        <v>66189</v>
+        <v>2312</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>62977</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D65">
-        <v>4082</v>
+        <v>51138</v>
       </c>
       <c r="E65">
-        <v>4083</v>
+        <v>51400</v>
       </c>
       <c r="F65">
-        <v>4084</v>
+        <v>51756</v>
       </c>
       <c r="G65">
-        <v>4092</v>
+        <v>52262</v>
       </c>
       <c r="H65">
-        <v>4100</v>
+        <v>53274</v>
       </c>
       <c r="I65">
-        <v>4108</v>
+        <v>54436</v>
       </c>
       <c r="J65">
-        <v>4121</v>
+        <v>55929</v>
       </c>
       <c r="K65">
-        <v>4140</v>
+        <v>57764</v>
       </c>
       <c r="L65">
-        <v>4150</v>
+        <v>59947</v>
       </c>
       <c r="M65">
-        <v>4250</v>
+        <v>65318</v>
       </c>
       <c r="N65">
-        <v>4200</v>
+        <v>62977</v>
       </c>
       <c r="O65">
-        <v>4295</v>
+        <v>67366</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>62977</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D66">
-        <v>39208</v>
+        <v>4082</v>
       </c>
       <c r="E66">
-        <v>39475</v>
+        <v>4083</v>
       </c>
       <c r="F66">
-        <v>39817</v>
+        <v>4084</v>
       </c>
       <c r="G66">
-        <v>40382</v>
+        <v>4092</v>
       </c>
       <c r="H66">
-        <v>41172</v>
+        <v>4100</v>
       </c>
       <c r="I66">
-        <v>42096</v>
+        <v>4108</v>
       </c>
       <c r="J66">
-        <v>43038</v>
+        <v>4121</v>
       </c>
       <c r="K66">
-        <v>44081</v>
+        <v>4140</v>
       </c>
       <c r="L66">
-        <v>45196</v>
+        <v>4150</v>
       </c>
       <c r="M66">
-        <v>50976</v>
+        <v>4250</v>
       </c>
       <c r="N66">
-        <v>48416</v>
+        <v>4200</v>
       </c>
       <c r="O66">
-        <v>48798</v>
+        <v>4301</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>48416</v>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:P66">
+    <sortCondition ref="A3:A66"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4212,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
